--- a/data/trans_bre/CONS_DIG-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/CONS_DIG-Estudios-trans_bre.xlsx
@@ -552,32 +552,32 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
-        <is>
-          <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="G2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>País Vasco</t>
         </is>
       </c>
     </row>
@@ -604,32 +604,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,75</t>
+          <t>2,33</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>5,21</t>
+          <t>3,79</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>2,74</t>
+          <t>1,18</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>5,21%</t>
+          <t>20,8%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>40,09%</t>
+          <t>42,53%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>33,21%</t>
+          <t>9,75%</t>
         </is>
       </c>
     </row>
@@ -642,32 +642,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-3,15; 4,8</t>
+          <t>-1,7; 6,27</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>2,16; 8,48</t>
+          <t>-1,08; 7,52</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,1; 5,38</t>
+          <t>-2,72; 4,84</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-19,72; 40,72</t>
+          <t>-11,81; 70,55</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>13,69; 77,13</t>
+          <t>-9,21; 116,92</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,6; 78,57</t>
+          <t>-19,11; 47,63</t>
         </is>
       </c>
     </row>
@@ -684,32 +684,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,46</t>
+          <t>0,25</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,66</t>
+          <t>0,28</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,17</t>
+          <t>0,44</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>9,07%</t>
+          <t>2,83%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>13,25%</t>
+          <t>7,26%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>2,08%</t>
+          <t>9,6%</t>
         </is>
       </c>
     </row>
@@ -722,32 +722,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-0,98; 2,1</t>
+          <t>-1,35; 2,09</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-0,65; 1,9</t>
+          <t>-2,02; 2,61</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-1,34; 1,64</t>
+          <t>-1,04; 1,97</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-16,97; 49,56</t>
+          <t>-13,6; 26,81</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-11,86; 44,54</t>
+          <t>-38,84; 92,26</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-14,91; 21,51</t>
+          <t>-19,69; 49,57</t>
         </is>
       </c>
     </row>
@@ -764,32 +764,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-0,8</t>
+          <t>-0,29</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-1,12</t>
+          <t>-0,68</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-0,28</t>
+          <t>-0,33</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-18,62%</t>
+          <t>-6,05%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-19,42%</t>
+          <t>-11,79%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-6,17%</t>
+          <t>-9,68%</t>
         </is>
       </c>
     </row>
@@ -802,32 +802,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-2,93; 1,35</t>
+          <t>-2,41; 1,76</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-3,2; 1,0</t>
+          <t>-2,99; 1,88</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,96; 1,51</t>
+          <t>-2,12; 1,66</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-53,52; 43,51</t>
+          <t>-41,13; 48,14</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-47,03; 22,53</t>
+          <t>-41,6; 44,67</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-35,07; 45,0</t>
+          <t>-48,57; 69,39</t>
         </is>
       </c>
     </row>
@@ -844,32 +844,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,48</t>
+          <t>0,4</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>1,78</t>
+          <t>1,02</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,41</t>
+          <t>0,56</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>7,15%</t>
+          <t>4,82%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>27,84%</t>
+          <t>21,06%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>5,45%</t>
+          <t>10,36%</t>
         </is>
       </c>
     </row>
@@ -882,32 +882,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-0,85; 1,83</t>
+          <t>-1,01; 1,68</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,5; 2,81</t>
+          <t>-1,04; 2,82</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-0,64; 1,49</t>
+          <t>-0,68; 1,73</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-11,39; 29,36</t>
+          <t>-11,59; 22,17</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>7,91; 48,96</t>
+          <t>-17,89; 74,82</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-7,84; 21,17</t>
+          <t>-11,09; 35,15</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/CONS_DIG-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/CONS_DIG-Estudios-trans_bre.xlsx
@@ -604,7 +604,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>2,33</t>
+          <t>2,91</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -619,7 +619,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>20,8%</t>
+          <t>26,83%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -642,12 +642,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-1,7; 6,27</t>
+          <t>-0,8; 6,75</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-1,08; 7,52</t>
+          <t>-0,6; 7,69</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -657,12 +657,12 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-11,81; 70,55</t>
+          <t>-6,23; 79,54</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-9,21; 116,92</t>
+          <t>-4,39; 124,41</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -684,7 +684,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,25</t>
+          <t>0,66</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -699,7 +699,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>2,83%</t>
+          <t>8,26%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -722,12 +722,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-1,35; 2,09</t>
+          <t>-0,85; 2,17</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-2,02; 2,61</t>
+          <t>-2,04; 2,45</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -737,12 +737,12 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-13,6; 26,81</t>
+          <t>-10,14; 29,73</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-38,84; 92,26</t>
+          <t>-38,46; 88,44</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -764,7 +764,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-0,29</t>
+          <t>-0,75</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-6,05%</t>
+          <t>-15,59%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -802,12 +802,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-2,41; 1,76</t>
+          <t>-2,9; 0,81</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,99; 1,88</t>
+          <t>-3,42; 1,64</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -817,12 +817,12 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-41,13; 48,14</t>
+          <t>-47,82; 21,32</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-41,6; 44,67</t>
+          <t>-46,19; 39,73</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -844,7 +844,7 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,4</t>
+          <t>0,57</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
@@ -859,7 +859,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>4,82%</t>
+          <t>7,61%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -882,12 +882,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-1,01; 1,68</t>
+          <t>-0,66; 1,75</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-1,04; 2,82</t>
+          <t>-0,83; 2,89</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -897,12 +897,12 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-11,59; 22,17</t>
+          <t>-8,05; 25,29</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-17,89; 74,82</t>
+          <t>-14,58; 76,42</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">

--- a/data/trans_bre/CONS_DIG-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/CONS_DIG-Estudios-trans_bre.xlsx
@@ -552,32 +552,32 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="G2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
         </is>
       </c>
     </row>
@@ -604,32 +604,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>4,11</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>1,18</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
           <t>2,91</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>3,79</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>1,18</t>
-        </is>
-      </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
+          <t>48,5%</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>9,75%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
           <t>26,83%</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>42,53%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>9,75%</t>
         </is>
       </c>
     </row>
@@ -642,32 +642,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>-0,28; 7,69</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>-2,72; 4,84</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
           <t>-0,8; 6,75</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-0,6; 7,69</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-2,72; 4,84</t>
-        </is>
-      </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
+          <t>-2,75; 129,85</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>-19,11; 47,63</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
           <t>-6,23; 79,54</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>-4,39; 124,41</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-19,11; 47,63</t>
         </is>
       </c>
     </row>
@@ -684,32 +684,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>0,9</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>0,44</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
           <t>0,66</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>0,28</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>0,44</t>
-        </is>
-      </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
+          <t>21,45%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>9,6%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
           <t>8,26%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>7,26%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>9,6%</t>
         </is>
       </c>
     </row>
@@ -722,32 +722,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>-0,73; 2,3</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>-1,04; 1,97</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
           <t>-0,85; 2,17</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-2,04; 2,45</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-1,04; 1,97</t>
-        </is>
-      </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
+          <t>-13,89; 67,75</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>-19,69; 49,57</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
           <t>-10,14; 29,73</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>-38,46; 88,44</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-19,69; 49,57</t>
         </is>
       </c>
     </row>
@@ -764,32 +764,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>-0,32</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>-0,33</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
           <t>-0,75</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-0,68</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-0,33</t>
-        </is>
-      </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
+          <t>-5,43%</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>-9,68%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
           <t>-15,59%</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>-11,79%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>-9,68%</t>
         </is>
       </c>
     </row>
@@ -802,32 +802,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>-3,14; 2,01</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>-2,12; 1,66</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
           <t>-2,9; 0,81</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-3,42; 1,64</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-2,12; 1,66</t>
-        </is>
-      </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
+          <t>-42,68; 43,97</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>-48,57; 69,39</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
           <t>-47,82; 21,32</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>-46,19; 39,73</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-48,57; 69,39</t>
         </is>
       </c>
     </row>
@@ -844,32 +844,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>1,53</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>0,56</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
           <t>0,57</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>1,02</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>0,56</t>
-        </is>
-      </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
+          <t>29,71%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>10,36%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
           <t>7,61%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>21,06%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>10,36%</t>
         </is>
       </c>
     </row>
@@ -882,32 +882,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>0,31; 2,79</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>-0,68; 1,73</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
           <t>-0,66; 1,75</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-0,83; 2,89</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-0,68; 1,73</t>
-        </is>
-      </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
+          <t>4,95; 62,06</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>-11,09; 35,15</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
           <t>-8,05; 25,29</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>-14,58; 76,42</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>-11,09; 35,15</t>
         </is>
       </c>
     </row>
